--- a/data/trans_dic/P19C05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,47</t>
+          <t>10,33; 17,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 15,6</t>
+          <t>8,56; 15,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,78</t>
+          <t>4,93; 10,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,66</t>
+          <t>6,29; 10,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,65; 18,2</t>
+          <t>9,5; 17,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,01</t>
+          <t>4,66; 11,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,43</t>
+          <t>5,92; 12,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,63</t>
+          <t>5,39; 9,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,57</t>
+          <t>10,89; 16,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,54</t>
+          <t>7,84; 12,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,63</t>
+          <t>6,2; 10,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,46</t>
+          <t>6,39; 9,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 16,88</t>
+          <t>9,14; 16,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,84</t>
+          <t>12,92; 20,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,55</t>
+          <t>6,91; 14,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 14,69</t>
+          <t>9,03; 14,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,17</t>
+          <t>5,18; 11,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,92</t>
+          <t>5,4; 11,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,0</t>
+          <t>4,25; 9,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,44</t>
+          <t>5,03; 9,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 12,58</t>
+          <t>7,84; 12,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 15,93</t>
+          <t>10,21; 15,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,0</t>
+          <t>6,29; 10,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,5</t>
+          <t>7,9; 11,61</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 16,02</t>
+          <t>9,96; 16,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,68</t>
+          <t>11,85; 18,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 19,4</t>
+          <t>12,12; 19,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 13,22</t>
+          <t>2,35; 13,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 15,51</t>
+          <t>5,65; 16,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,12; 28,53</t>
+          <t>17,15; 29,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 23,61</t>
+          <t>9,67; 24,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 20,75</t>
+          <t>11,79; 20,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 14,69</t>
+          <t>9,49; 14,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,87; 20,41</t>
+          <t>14,7; 20,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,95</t>
+          <t>12,56; 19,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 13,89</t>
+          <t>4,19; 14,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,36</t>
+          <t>15,6; 20,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 19,01</t>
+          <t>14,1; 19,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,46</t>
+          <t>9,88; 14,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 14,64</t>
+          <t>10,76; 14,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,67</t>
+          <t>11,01; 16,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,64</t>
+          <t>10,74; 16,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,98</t>
+          <t>5,83; 10,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,09</t>
+          <t>3,97; 10,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 18,14</t>
+          <t>14,33; 18,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 17,26</t>
+          <t>13,65; 17,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 11,8</t>
+          <t>8,85; 11,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,66</t>
+          <t>7,15; 11,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,38</t>
+          <t>7,42; 15,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,26; 23,33</t>
+          <t>15,13; 22,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 13,26</t>
+          <t>7,44; 13,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,43</t>
+          <t>6,54; 11,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 19,89</t>
+          <t>13,04; 19,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 28,34</t>
+          <t>21,43; 27,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,42</t>
+          <t>10,99; 17,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,46</t>
+          <t>9,67; 15,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,57</t>
+          <t>11,92; 17,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,97; 24,94</t>
+          <t>19,68; 25,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,58</t>
+          <t>10,28; 14,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,61</t>
+          <t>9,54; 13,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,51</t>
+          <t>0,41; 3,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,07</t>
+          <t>1,8; 7,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,41</t>
+          <t>2,05; 7,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,73</t>
+          <t>0,63; 6,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,69; 25,49</t>
+          <t>19,64; 24,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,91; 25,83</t>
+          <t>19,94; 25,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,26</t>
+          <t>12,84; 18,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,26</t>
+          <t>14,79; 19,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 20,91</t>
+          <t>16,45; 20,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,69; 21,41</t>
+          <t>16,51; 21,62</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,08</t>
+          <t>10,92; 15,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 15,32</t>
+          <t>11,67; 15,4</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,24; 14,98</t>
+          <t>12,25; 15,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,51; 16,42</t>
+          <t>13,6; 16,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,47; 11,89</t>
+          <t>9,57; 11,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,8</t>
+          <t>7,41; 10,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 17,61</t>
+          <t>14,77; 17,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,86; 19,67</t>
+          <t>16,86; 19,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 12,97</t>
+          <t>10,32; 12,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,28</t>
+          <t>8,82; 12,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,95; 15,96</t>
+          <t>13,93; 15,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,61; 17,58</t>
+          <t>15,65; 17,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,26; 12,05</t>
+          <t>10,29; 12,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,3</t>
+          <t>8,92; 11,32</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53087</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45650</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28473</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41394</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35224</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23117</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28630</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32091</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>88312</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68767</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>57102</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>73484</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39912; 66816</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33830; 61033</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19123; 41867</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31335; 53448</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25479; 47358</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13689; 33874</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18697; 40689</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23745; 41049</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71294; 107881</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54059; 86707</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43629; 75207</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60038; 89450</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38055</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62773</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32901</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51961</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25420</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26104</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22146</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26640</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63474</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>88876</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55047</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78601</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27434; 50210</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49585; 80270</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21876; 44897</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40499; 66188</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17291; 37463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16939; 36434</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14168; 33126</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18989; 35092</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49698; 79466</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>71192; 111396</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40890; 69573</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>65254; 95933</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54694</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>81656</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62956</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>51341</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13611</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>54341</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22272</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26279</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68305</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>135997</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85229</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>77621</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>42870; 70382</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>63443; 100433</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49117; 78857</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15517; 88702</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7915; 22502</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41263; 70194</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13481; 33506</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19448; 34585</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>54151; 84266</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>114123; 158014</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>68387; 104561</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34571; 117550</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>156239</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>161488</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>106756</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>125147</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>82013</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>94215</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53376</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>71340</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>238252</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>255703</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>160132</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>196487</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>135958; 179611</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>137169; 185425</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>86910; 125930</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>107449; 146544</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65654; 98521</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75085; 112802</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>39910; 68885</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38097; 96124</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>210380; 267197</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>228214; 288112</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>138366; 186119</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>139986; 229644</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27867</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>75964</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42877</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38794</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74175</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>164539</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>78296</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>105788</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>102042</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>240503</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>121173</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>144581</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18397; 38383</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>61026; 92287</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31625; 56298</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28687; 49842</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>59476; 89984</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>143516; 185847</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>61294; 96323</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>78750; 125993</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>83901; 121395</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>211219; 268324</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>101049; 144414</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>119472; 165225</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8661</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9763</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5460</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>211778</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>209420</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>125916</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>126074</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>214572</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>218081</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>135679</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>131533</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>880; 7556</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3992; 15703</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4960; 17683</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1470; 16001</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>185714; 235555</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>184529; 237566</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>105954; 149110</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>110013; 143220</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>190464; 242279</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>189338; 247922</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>116501; 161785</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>114048; 150494</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>332736</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>436192</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>283725</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>314097</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>442221</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>571735</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>330637</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>388211</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>774957</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1007927</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>614362</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>702308</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>299987; 368962</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>396048; 479844</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>254274; 317619</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>243028; 356986</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>404658; 482617</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>529892; 616452</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>294580; 367803</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>308800; 429117</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>722945; 826953</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>947534; 1066624</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>566936; 664022</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>604277; 767080</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
